--- a/results/graphiques_2010_2020.xlsx
+++ b/results/graphiques_2010_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia.sharepoint.com/teams/STUDENT_EMERGING_MARKETS_MEMOIRE_2023/Shared Documents/General/Memoire_M2_2023/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myjunia-my.sharepoint.com/personal/hugo_demenez_student_junia_com/Documents/MFE/Memoire_M2_2023/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D49641D4-0F27-2940-81F4-809CD8561957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5713EED4-AD1A-F34A-9A0A-E538654B567F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{D49641D4-0F27-2940-81F4-809CD8561957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A364B6F-C0CF-5F40-ADE9-59C8EF8EE6B5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{8C826F5C-FF06-B64A-896B-BC6D26E22854}"/>
   </bookViews>
@@ -148,7 +148,7 @@
             <c:numRef>
               <c:f>'[1]Hang Seng'!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.5442669487266981E-2</c:v>
@@ -220,7 +220,7 @@
             <c:numRef>
               <c:f>'[1]Hang Seng'!$B$2:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>5.5027220211976231E-4</c:v>
@@ -327,7 +327,7 @@
             <c:numRef>
               <c:f>'[1]Hang Seng'!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>2.1614677611413009E-2</c:v>
@@ -966,7 +966,7 @@
             <c:numRef>
               <c:f>'[1]Hang Seng'!$B$23:$B$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>8.5479864012210402E-4</c:v>
@@ -1650,7 +1650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAAB12A4-807E-CB44-9204-608ACDFDD2A0}" type="CELLRANGE">
+                    <a:fld id="{4F8923B3-2C8D-424A-AC7A-09A2123C509F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1689,7 +1689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43B548DE-D265-1A47-83DD-2EC16099AD23}" type="CELLRANGE">
+                    <a:fld id="{48320836-DD91-134D-9466-B79C08497AF0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1728,7 +1728,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5816519A-0DF8-EF41-A736-CED5D00BA848}" type="CELLRANGE">
+                    <a:fld id="{7A8494A3-C4C6-0842-898A-00261B709556}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -1767,7 +1767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4B6F31D-4127-C546-BD46-F52FF16EBC6D}" type="CELLRANGE">
+                    <a:fld id="{C111077F-2D35-774C-B76E-EFBA14138C26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -2288,7 +2288,7 @@
             <c:numRef>
               <c:f>[1]Taiwan!$A$2:$A$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.5442669487266981E-2</c:v>
@@ -2360,7 +2360,7 @@
             <c:numRef>
               <c:f>[1]Taiwan!$B$2:$B$22</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>5.5027220211976231E-4</c:v>
@@ -2467,7 +2467,7 @@
             <c:numRef>
               <c:f>[1]Taiwan!$A$23:$A$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>2.1494676584756959E-2</c:v>
@@ -3106,7 +3106,7 @@
             <c:numRef>
               <c:f>[1]Taiwan!$B$23:$B$232</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>8.8249691118668966E-4</c:v>
@@ -3790,7 +3790,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{255D0566-009D-DB40-92EA-F5D60710EE6A}" type="CELLRANGE">
+                    <a:fld id="{49DB4602-D50A-D94C-A9CD-142CC2BFD8A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3829,7 +3829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4994FE17-E7D3-E94C-8E8E-D2D6B1A6889F}" type="CELLRANGE">
+                    <a:fld id="{8E29C65A-24F9-B14F-AADF-EF9EF8770BF4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3868,7 +3868,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BCF2C54-472E-F548-9923-42EAC4C7D828}" type="CELLRANGE">
+                    <a:fld id="{0955613A-76E6-1648-9B5F-7A99F871D834}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -3907,7 +3907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4B849A2-F906-C643-B058-18C14066AC48}" type="CELLRANGE">
+                    <a:fld id="{F181D9A2-65C2-2E49-81CD-09AA331EC335}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[PLAGECELL]</a:t>
@@ -9389,10 +9389,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -9692,7 +9688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605C774B-18B1-5440-B955-15DACAD5615E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
@@ -9707,6 +9703,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AD713FF87E5B9F469D753B24FFFEE3C3" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c38a46b315577503d84d010574c1421d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e69700f-71ad-4d8d-94ed-9106ff4b281c" xmlns:ns3="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6eb623e45cee2c685d95ea31f364537d" ns2:_="" ns3:_="">
     <xsd:import namespace="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
@@ -9889,27 +9905,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e69700f-71ad-4d8d-94ed-9106ff4b281c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE9A935-8E58-408C-BAB5-61DE2923C560}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41414027-D3AB-4939-916D-9C4532D60A5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9926,29 +9947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19EA1EC6-74A8-4DAB-BE10-7580D4939D95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6e69700f-71ad-4d8d-94ed-9106ff4b281c"/>
-    <ds:schemaRef ds:uri="f3877c1a-f6bf-41d7-94b8-b9d5d16879b5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AE9A935-8E58-408C-BAB5-61DE2923C560}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>